--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.8194540133834</v>
+        <v>194.353014703868</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.6720277177078</v>
+        <v>265.9223689675786</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.8022763005109</v>
+        <v>240.5431112977795</v>
       </c>
       <c r="AD2" t="n">
-        <v>159819.4540133834</v>
+        <v>194353.014703868</v>
       </c>
       <c r="AE2" t="n">
-        <v>218672.0277177078</v>
+        <v>265922.3689675786</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.311967474638153e-06</v>
+        <v>4.774745649235635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>197802.2763005109</v>
+        <v>240543.1112977795</v>
       </c>
     </row>
     <row r="3">
@@ -3783,28 +3783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.7506894572025</v>
+        <v>140.1988197845644</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.6927587064352</v>
+        <v>191.82621036456</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.8834848930944</v>
+        <v>173.5185860771977</v>
       </c>
       <c r="AD3" t="n">
-        <v>105750.6894572025</v>
+        <v>140198.8197845644</v>
       </c>
       <c r="AE3" t="n">
-        <v>144692.7587064352</v>
+        <v>191826.21036456</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.409286796825323e-06</v>
+        <v>6.356711867067474e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.892361111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>130883.4848930945</v>
+        <v>173518.5860771977</v>
       </c>
     </row>
     <row r="4">
@@ -3889,28 +3889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.2512346258371</v>
+        <v>125.0660866662667</v>
       </c>
       <c r="AB4" t="n">
-        <v>135.7999178704551</v>
+        <v>171.1209373030477</v>
       </c>
       <c r="AC4" t="n">
-        <v>122.839364305317</v>
+        <v>154.7893952166363</v>
       </c>
       <c r="AD4" t="n">
-        <v>99251.2346258371</v>
+        <v>125066.0866662667</v>
       </c>
       <c r="AE4" t="n">
-        <v>135799.9178704551</v>
+        <v>171120.9373030477</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.825337513316506e-06</v>
+        <v>6.95651737954301e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.296296296296297</v>
       </c>
       <c r="AH4" t="n">
-        <v>122839.364305317</v>
+        <v>154789.3952166363</v>
       </c>
     </row>
     <row r="5">
@@ -3995,28 +3995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.18588976654975</v>
+        <v>122.0007418069793</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.6057778005094</v>
+        <v>166.9267972331019</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.045507077133</v>
+        <v>150.9955379884523</v>
       </c>
       <c r="AD5" t="n">
-        <v>96185.88976654975</v>
+        <v>122000.7418069793</v>
       </c>
       <c r="AE5" t="n">
-        <v>131605.7778005094</v>
+        <v>166926.7972331019</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.046492470037583e-06</v>
+        <v>7.275348610675864e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.024305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>119045.507077133</v>
+        <v>150995.5379884523</v>
       </c>
     </row>
     <row r="6">
@@ -4101,28 +4101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.00676588644187</v>
+        <v>111.906869272892</v>
       </c>
       <c r="AB6" t="n">
-        <v>117.678251436501</v>
+        <v>153.1159155217428</v>
       </c>
       <c r="AC6" t="n">
-        <v>106.4472042818951</v>
+        <v>138.5027474439267</v>
       </c>
       <c r="AD6" t="n">
-        <v>86006.76588644186</v>
+        <v>111906.869272892</v>
       </c>
       <c r="AE6" t="n">
-        <v>117678.251436501</v>
+        <v>153115.9155217428</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.146329936845173e-06</v>
+        <v>7.41928073377811e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>106447.2042818951</v>
+        <v>138502.7474439267</v>
       </c>
     </row>
     <row r="7">
@@ -4207,28 +4207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.45263703236807</v>
+        <v>110.3527404188182</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.5518237750322</v>
+        <v>150.989487860274</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.5237198919763</v>
+        <v>136.5792630540078</v>
       </c>
       <c r="AD7" t="n">
-        <v>84452.63703236807</v>
+        <v>110352.7404188182</v>
       </c>
       <c r="AE7" t="n">
-        <v>115551.8237750322</v>
+        <v>150989.487860274</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.256355972069741e-06</v>
+        <v>7.577901353398944e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH7" t="n">
-        <v>104523.7198919763</v>
+        <v>136579.2630540078</v>
       </c>
     </row>
     <row r="8">
@@ -4313,28 +4313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>83.16416252146152</v>
+        <v>109.0642659079116</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.7888761057272</v>
+        <v>149.226540190969</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.9290254739166</v>
+        <v>134.9845686359481</v>
       </c>
       <c r="AD8" t="n">
-        <v>83164.16252146152</v>
+        <v>109064.2659079116</v>
       </c>
       <c r="AE8" t="n">
-        <v>113788.8761057272</v>
+        <v>149226.540190969</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.328201134927598e-06</v>
+        <v>7.681477968024864e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.706018518518518</v>
       </c>
       <c r="AH8" t="n">
-        <v>102929.0254739166</v>
+        <v>134984.5686359481</v>
       </c>
     </row>
     <row r="9">
@@ -4419,28 +4419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.45411813076298</v>
+        <v>108.3542215172131</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.8173620454262</v>
+        <v>148.255026130668</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.0502313520019</v>
+        <v>134.1057745140334</v>
       </c>
       <c r="AD9" t="n">
-        <v>82454.11813076297</v>
+        <v>108354.2215172131</v>
       </c>
       <c r="AE9" t="n">
-        <v>112817.3620454262</v>
+        <v>148255.026130668</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.363125866872389e-06</v>
+        <v>7.731827711245797e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.665509259259259</v>
       </c>
       <c r="AH9" t="n">
-        <v>102050.2313520019</v>
+        <v>134105.7745140334</v>
       </c>
     </row>
     <row r="10">
@@ -4525,28 +4525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.55311276982057</v>
+        <v>107.4532161562707</v>
       </c>
       <c r="AB10" t="n">
-        <v>111.5845667610343</v>
+        <v>147.022230846276</v>
       </c>
       <c r="AC10" t="n">
-        <v>100.9350923193128</v>
+        <v>132.9906354813444</v>
       </c>
       <c r="AD10" t="n">
-        <v>81553.11276982057</v>
+        <v>107453.2161562707</v>
       </c>
       <c r="AE10" t="n">
-        <v>111584.5667610343</v>
+        <v>147022.230846276</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.402199551935434e-06</v>
+        <v>7.788158852533577e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH10" t="n">
-        <v>100935.0923193128</v>
+        <v>132990.6354813444</v>
       </c>
     </row>
     <row r="11">
@@ -4631,28 +4631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>80.71625195341944</v>
+        <v>106.6163553398696</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.4395368723413</v>
+        <v>145.8772009575831</v>
       </c>
       <c r="AC11" t="n">
-        <v>99.89934247613681</v>
+        <v>131.9548856381683</v>
       </c>
       <c r="AD11" t="n">
-        <v>80716.25195341944</v>
+        <v>106616.3553398696</v>
       </c>
       <c r="AE11" t="n">
-        <v>110439.5368723413</v>
+        <v>145877.2009575831</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.441535828967989e-06</v>
+        <v>7.844868563319261e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>99899.34247613681</v>
+        <v>131954.8856381683</v>
       </c>
     </row>
     <row r="12">
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>79.78800845933156</v>
+        <v>105.6881118457817</v>
       </c>
       <c r="AB12" t="n">
-        <v>109.1694731725181</v>
+        <v>144.6071372577599</v>
       </c>
       <c r="AC12" t="n">
-        <v>98.75049187327875</v>
+        <v>130.8060350353103</v>
       </c>
       <c r="AD12" t="n">
-        <v>79788.00845933157</v>
+        <v>105688.1118457817</v>
       </c>
       <c r="AE12" t="n">
-        <v>109169.4731725181</v>
+        <v>144607.1372577599</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.476040413761564e-06</v>
+        <v>7.89461259534355e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>98750.49187327875</v>
+        <v>130806.0350353103</v>
       </c>
     </row>
     <row r="13">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>79.92003868783145</v>
+        <v>105.8201420742815</v>
       </c>
       <c r="AB13" t="n">
-        <v>109.3501227559141</v>
+        <v>144.7877868411559</v>
       </c>
       <c r="AC13" t="n">
-        <v>98.9139005139788</v>
+        <v>130.9694436760103</v>
       </c>
       <c r="AD13" t="n">
-        <v>79920.03868783145</v>
+        <v>105820.1420742816</v>
       </c>
       <c r="AE13" t="n">
-        <v>109350.1227559141</v>
+        <v>144787.7868411559</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.474622417126212e-06</v>
+        <v>7.892568320054881e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>98913.90051397881</v>
+        <v>130969.4436760103</v>
       </c>
     </row>
   </sheetData>
@@ -5140,28 +5140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.9008816367813</v>
+        <v>164.4853245107724</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.1043611946886</v>
+        <v>225.0560775759108</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.0108923368673</v>
+        <v>203.5770414003193</v>
       </c>
       <c r="AD2" t="n">
-        <v>130900.8816367813</v>
+        <v>164485.3245107724</v>
       </c>
       <c r="AE2" t="n">
-        <v>179104.3611946886</v>
+        <v>225056.0775759108</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.874891716904231e-06</v>
+        <v>5.672695704178943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.113425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>162010.8923368673</v>
+        <v>203577.0414003193</v>
       </c>
     </row>
     <row r="3">
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.50737342552831</v>
+        <v>120.6743927445165</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.677401808696</v>
+        <v>165.1120279314503</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.2057339869941</v>
+        <v>149.353967721905</v>
       </c>
       <c r="AD3" t="n">
-        <v>95507.37342552832</v>
+        <v>120674.3927445165</v>
       </c>
       <c r="AE3" t="n">
-        <v>130677.401808696</v>
+        <v>165112.0279314503</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.906935729331151e-06</v>
+        <v>7.183569313956896e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>118205.7339869941</v>
+        <v>149353.967721905</v>
       </c>
     </row>
     <row r="4">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.28878657059552</v>
+        <v>115.7877990814639</v>
       </c>
       <c r="AB4" t="n">
-        <v>112.5911481108915</v>
+        <v>158.4259749003677</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.8456069578858</v>
+        <v>143.3060222081724</v>
       </c>
       <c r="AD4" t="n">
-        <v>82288.78657059552</v>
+        <v>115787.7990814639</v>
       </c>
       <c r="AE4" t="n">
-        <v>112591.1481108915</v>
+        <v>158425.9749003677</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.288818092110095e-06</v>
+        <v>7.742630727050666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.943287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>101845.6069578858</v>
+        <v>143306.0222081724</v>
       </c>
     </row>
     <row r="5">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.27181288015584</v>
+        <v>105.5240835451646</v>
       </c>
       <c r="AB5" t="n">
-        <v>109.8314357250342</v>
+        <v>144.3827065004378</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.34927764885322</v>
+        <v>130.6030236344764</v>
       </c>
       <c r="AD5" t="n">
-        <v>80271.81288015583</v>
+        <v>105524.0835451646</v>
       </c>
       <c r="AE5" t="n">
-        <v>109831.4357250342</v>
+        <v>144382.7065004378</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.448872927897087e-06</v>
+        <v>7.976944985547498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.769675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>99349.27764885321</v>
+        <v>130603.0236344764</v>
       </c>
     </row>
     <row r="6">
@@ -5564,28 +5564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.46232764916049</v>
+        <v>103.7145983141692</v>
       </c>
       <c r="AB6" t="n">
-        <v>107.3556182031333</v>
+        <v>141.9068889785368</v>
       </c>
       <c r="AC6" t="n">
-        <v>97.10974867641001</v>
+        <v>128.3634946620331</v>
       </c>
       <c r="AD6" t="n">
-        <v>78462.32764916049</v>
+        <v>103714.5983141692</v>
       </c>
       <c r="AE6" t="n">
-        <v>107355.6182031333</v>
+        <v>141906.8889785368</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.59203127558844e-06</v>
+        <v>8.186523421100505e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH6" t="n">
-        <v>97109.74867641</v>
+        <v>128363.4946620331</v>
       </c>
     </row>
     <row r="7">
@@ -5670,28 +5670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.33287145548461</v>
+        <v>102.5851421204934</v>
       </c>
       <c r="AB7" t="n">
-        <v>105.8102464108561</v>
+        <v>140.3615171862597</v>
       </c>
       <c r="AC7" t="n">
-        <v>95.71186499904434</v>
+        <v>126.9656109846675</v>
       </c>
       <c r="AD7" t="n">
-        <v>77332.87145548461</v>
+        <v>102585.1421204934</v>
       </c>
       <c r="AE7" t="n">
-        <v>105810.2464108561</v>
+        <v>140361.5171862597</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.659997534777009e-06</v>
+        <v>8.28602346773307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>95711.86499904434</v>
+        <v>126965.6109846675</v>
       </c>
     </row>
     <row r="8">
@@ -5776,28 +5776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.00173156802677</v>
+        <v>101.0834100324433</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.98892209109</v>
+        <v>138.3067810916467</v>
       </c>
       <c r="AC8" t="n">
-        <v>94.06436531611141</v>
+        <v>125.1069760190835</v>
       </c>
       <c r="AD8" t="n">
-        <v>76001.73156802676</v>
+        <v>101083.4100324433</v>
       </c>
       <c r="AE8" t="n">
-        <v>103988.92209109</v>
+        <v>138306.7810916467</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.729973987083067e-06</v>
+        <v>8.388466361468278e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH8" t="n">
-        <v>94064.36531611141</v>
+        <v>125106.9760190835</v>
       </c>
     </row>
     <row r="9">
@@ -5882,28 +5882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>75.40065200356192</v>
+        <v>100.4823304679785</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.1664985132308</v>
+        <v>137.4843575137875</v>
       </c>
       <c r="AC9" t="n">
-        <v>93.32043269024406</v>
+        <v>124.3630433932162</v>
       </c>
       <c r="AD9" t="n">
-        <v>75400.65200356192</v>
+        <v>100482.3304679785</v>
       </c>
       <c r="AE9" t="n">
-        <v>103166.4985132308</v>
+        <v>137484.3575137875</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.726605555372682e-06</v>
+        <v>8.383535104161149e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.491898148148149</v>
       </c>
       <c r="AH9" t="n">
-        <v>93320.43269024407</v>
+        <v>124363.0433932162</v>
       </c>
     </row>
     <row r="10">
@@ -5988,28 +5988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>75.22766720347722</v>
+        <v>100.3093456678938</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.9298130782043</v>
+        <v>137.247672078761</v>
       </c>
       <c r="AC10" t="n">
-        <v>93.10633618094629</v>
+        <v>124.1489468839184</v>
       </c>
       <c r="AD10" t="n">
-        <v>75227.66720347722</v>
+        <v>100309.3456678938</v>
       </c>
       <c r="AE10" t="n">
-        <v>102929.8130782043</v>
+        <v>137247.672078761</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.76490788369238e-06</v>
+        <v>8.439608271927703e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>93106.33618094628</v>
+        <v>124148.9468839184</v>
       </c>
     </row>
   </sheetData>
@@ -6285,28 +6285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.47183189073804</v>
+        <v>101.6884467474367</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.3686223257572</v>
+        <v>139.1346190174363</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.12151170382212</v>
+        <v>125.8558062551138</v>
       </c>
       <c r="AD2" t="n">
-        <v>78471.83189073805</v>
+        <v>101688.4467474367</v>
       </c>
       <c r="AE2" t="n">
-        <v>107368.6223257572</v>
+        <v>139134.6190174363</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.760600062548662e-06</v>
+        <v>8.912359344421087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.087962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>97121.51170382212</v>
+        <v>125855.8062551138</v>
       </c>
     </row>
     <row r="3">
@@ -6391,28 +6391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.12335936954567</v>
+        <v>88.2546333716727</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.10465332922529</v>
+        <v>120.7538828987067</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.60063027467191</v>
+        <v>109.2293017940248</v>
       </c>
       <c r="AD3" t="n">
-        <v>65123.35936954567</v>
+        <v>88254.63337167269</v>
       </c>
       <c r="AE3" t="n">
-        <v>89104.65332922529</v>
+        <v>120753.8828987067</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.460623729933577e-06</v>
+        <v>9.995382363827437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.428240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>80600.63027467192</v>
+        <v>109229.3017940248</v>
       </c>
     </row>
     <row r="4">
@@ -6497,28 +6497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.35071431086764</v>
+        <v>87.48198831299467</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.04748627324828</v>
+        <v>119.6967158427297</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.64435775877372</v>
+        <v>108.2730292781266</v>
       </c>
       <c r="AD4" t="n">
-        <v>64350.71431086764</v>
+        <v>87481.98831299467</v>
       </c>
       <c r="AE4" t="n">
-        <v>88047.48627324829</v>
+        <v>119696.7158427297</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.552347624343672e-06</v>
+        <v>1.013729055022752e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.35300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>79644.35775877372</v>
+        <v>108273.0292781266</v>
       </c>
     </row>
   </sheetData>
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.56016973162723</v>
+        <v>121.5606909240335</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.540175342595</v>
+        <v>166.324700201381</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.8451129941461</v>
+        <v>150.4509042523901</v>
       </c>
       <c r="AD2" t="n">
-        <v>89560.16973162723</v>
+        <v>121560.6909240335</v>
       </c>
       <c r="AE2" t="n">
-        <v>122540.175342595</v>
+        <v>166324.700201381</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.982805336636734e-06</v>
+        <v>7.530483651166896e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.736111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>110845.1129941461</v>
+        <v>150450.9042523901</v>
       </c>
     </row>
     <row r="3">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.79318325565184</v>
+        <v>96.85757979088524</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.59884473893949</v>
+        <v>132.5248137246772</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.09327078493646</v>
+        <v>119.8768315025736</v>
       </c>
       <c r="AD3" t="n">
-        <v>72793.18325565183</v>
+        <v>96857.57979088524</v>
       </c>
       <c r="AE3" t="n">
-        <v>99598.84473893949</v>
+        <v>132524.8137246773</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.841739714051505e-06</v>
+        <v>8.828585995039115e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>90093.27078493647</v>
+        <v>119876.8315025736</v>
       </c>
     </row>
     <row r="4">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>69.94585772643099</v>
+        <v>93.83966206107222</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.70300833472461</v>
+        <v>128.3955655456155</v>
       </c>
       <c r="AC4" t="n">
-        <v>86.56924753929788</v>
+        <v>116.141672974284</v>
       </c>
       <c r="AD4" t="n">
-        <v>69945.85772643099</v>
+        <v>93839.66206107222</v>
       </c>
       <c r="AE4" t="n">
-        <v>95703.00833472461</v>
+        <v>128395.5655456155</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.134160182041058e-06</v>
+        <v>9.270519284559962e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>86569.24753929788</v>
+        <v>116141.672974284</v>
       </c>
     </row>
     <row r="5">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.27733659221079</v>
+        <v>92.171140926852</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.42006410892837</v>
+        <v>126.1126213198193</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.50418430627856</v>
+        <v>114.0766097412647</v>
       </c>
       <c r="AD5" t="n">
-        <v>68277.33659221079</v>
+        <v>92171.14092685201</v>
       </c>
       <c r="AE5" t="n">
-        <v>93420.06410892837</v>
+        <v>126112.6213198193</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.260709460334038e-06</v>
+        <v>9.461772445554504e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.358796296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>84504.18430627856</v>
+        <v>114076.6097412647</v>
       </c>
     </row>
     <row r="6">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.44478565772208</v>
+        <v>92.3385899923633</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.64917530769219</v>
+        <v>126.3417325185831</v>
       </c>
       <c r="AC6" t="n">
-        <v>84.71142945379204</v>
+        <v>114.2838548887781</v>
       </c>
       <c r="AD6" t="n">
-        <v>68444.78565772208</v>
+        <v>92338.5899923633</v>
       </c>
       <c r="AE6" t="n">
-        <v>93649.17530769219</v>
+        <v>126341.7325185831</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.254909768386604e-06</v>
+        <v>9.453007406095542e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>84711.42945379204</v>
+        <v>114283.8548887781</v>
       </c>
     </row>
   </sheetData>
@@ -7515,28 +7515,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.53804983027109</v>
+        <v>86.21448474169424</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.93556287867008</v>
+        <v>117.9624615381663</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.63855477237942</v>
+        <v>106.704289770349</v>
       </c>
       <c r="AD2" t="n">
-        <v>63538.04983027109</v>
+        <v>86214.48474169424</v>
       </c>
       <c r="AE2" t="n">
-        <v>86935.56287867008</v>
+        <v>117962.4615381663</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.380856845453547e-06</v>
+        <v>1.008486761233426e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.711805555555554</v>
       </c>
       <c r="AH2" t="n">
-        <v>78638.55477237942</v>
+        <v>106704.289770349</v>
       </c>
     </row>
     <row r="3">
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.29876660853725</v>
+        <v>83.8046093193682</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.8716767844919</v>
+        <v>114.6651636691413</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.86708166683749</v>
+        <v>103.721681382156</v>
       </c>
       <c r="AD3" t="n">
-        <v>61298.76660853725</v>
+        <v>83804.6093193682</v>
       </c>
       <c r="AE3" t="n">
-        <v>83871.67678449189</v>
+        <v>114665.1636691413</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.715253209348476e-06</v>
+        <v>1.061337704948441e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.428240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>75867.08166683749</v>
+        <v>103721.681382156</v>
       </c>
     </row>
   </sheetData>
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.6194390288353</v>
+        <v>169.4309182925755</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.560499586554</v>
+        <v>231.8228571723694</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.8508659418623</v>
+        <v>209.6980090493289</v>
       </c>
       <c r="AD2" t="n">
-        <v>135619.4390288353</v>
+        <v>169430.9182925755</v>
       </c>
       <c r="AE2" t="n">
-        <v>185560.499586554</v>
+        <v>231822.8571723694</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.723786191135872e-06</v>
+        <v>5.428856830883727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>167850.8659418623</v>
+        <v>209698.0090493289</v>
       </c>
     </row>
     <row r="3">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.90768035810201</v>
+        <v>123.4155691699943</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.9616076479099</v>
+        <v>168.8626264489561</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.1764998303263</v>
+        <v>152.7466143808993</v>
       </c>
       <c r="AD3" t="n">
-        <v>97907.68035810201</v>
+        <v>123415.5691699943</v>
       </c>
       <c r="AE3" t="n">
-        <v>133961.6076479099</v>
+        <v>168862.6264489561</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.784356162984494e-06</v>
+        <v>6.975047251269887e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>121176.4998303263</v>
+        <v>152746.6143808993</v>
       </c>
     </row>
     <row r="4">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.88105241004079</v>
+        <v>118.2183490213409</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.0839535302019</v>
+        <v>161.7515605564012</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.955239368762</v>
+        <v>146.3142186366839</v>
       </c>
       <c r="AD4" t="n">
-        <v>92881.05241004079</v>
+        <v>118218.3490213409</v>
       </c>
       <c r="AE4" t="n">
-        <v>127083.9535302019</v>
+        <v>161751.5605564012</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.167976888409483e-06</v>
+        <v>7.534322647008104e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.030092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>114955.239368762</v>
+        <v>146314.2186366839</v>
       </c>
     </row>
     <row r="5">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.87282986462372</v>
+        <v>107.2953778219444</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.0220177950665</v>
+        <v>146.806269473915</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.3307936406235</v>
+        <v>132.7952851592577</v>
       </c>
       <c r="AD5" t="n">
-        <v>81872.82986462372</v>
+        <v>107295.3778219444</v>
       </c>
       <c r="AE5" t="n">
-        <v>112022.0177950665</v>
+        <v>146806.269473915</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.362237039614167e-06</v>
+        <v>7.817531857930701e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.810185185185184</v>
       </c>
       <c r="AH5" t="n">
-        <v>101330.7936406235</v>
+        <v>132795.2851592577</v>
       </c>
     </row>
     <row r="6">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.61776147093622</v>
+        <v>106.0403094282568</v>
       </c>
       <c r="AB6" t="n">
-        <v>110.3047778491143</v>
+        <v>145.0890295279629</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.77744466495112</v>
+        <v>131.2419361835853</v>
       </c>
       <c r="AD6" t="n">
-        <v>80617.76147093621</v>
+        <v>106040.3094282568</v>
       </c>
       <c r="AE6" t="n">
-        <v>110304.7778491143</v>
+        <v>145089.0295279628</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.459044066184569e-06</v>
+        <v>7.95866549463769e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.706018518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>99777.44466495112</v>
+        <v>131241.9361835853</v>
       </c>
     </row>
     <row r="7">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>79.25926969309469</v>
+        <v>104.6818176504153</v>
       </c>
       <c r="AB7" t="n">
-        <v>108.4460294662451</v>
+        <v>143.2302811450936</v>
       </c>
       <c r="AC7" t="n">
-        <v>98.09609261897262</v>
+        <v>129.5605841376068</v>
       </c>
       <c r="AD7" t="n">
-        <v>79259.2696930947</v>
+        <v>104681.8176504153</v>
       </c>
       <c r="AE7" t="n">
-        <v>108446.0294662451</v>
+        <v>143230.2811450936</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.53463753965779e-06</v>
+        <v>8.068872183145264e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.630787037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>98096.09261897262</v>
+        <v>129560.5841376068</v>
       </c>
     </row>
     <row r="8">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.11018084389734</v>
+        <v>103.532728801218</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.8737954085519</v>
+        <v>141.6580470874004</v>
       </c>
       <c r="AC8" t="n">
-        <v>96.67391037310075</v>
+        <v>128.1384018917349</v>
       </c>
       <c r="AD8" t="n">
-        <v>78110.18084389734</v>
+        <v>103532.728801218</v>
       </c>
       <c r="AE8" t="n">
-        <v>106873.7954085519</v>
+        <v>141658.0470874004</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.606031375715829e-06</v>
+        <v>8.172956277846862e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>96673.91037310075</v>
+        <v>128138.4018917349</v>
       </c>
     </row>
     <row r="9">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>76.99923432734437</v>
+        <v>102.421782284665</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.3537493731036</v>
+        <v>140.1380010519521</v>
       </c>
       <c r="AC9" t="n">
-        <v>95.29893539787717</v>
+        <v>126.7634269165113</v>
       </c>
       <c r="AD9" t="n">
-        <v>76999.23432734437</v>
+        <v>102421.782284665</v>
       </c>
       <c r="AE9" t="n">
-        <v>105353.7493731036</v>
+        <v>140138.0010519521</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.646250980191965e-06</v>
+        <v>8.23159188775794e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>95298.93539787717</v>
+        <v>126763.4269165113</v>
       </c>
     </row>
     <row r="10">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>76.61650326422031</v>
+        <v>101.8684590209488</v>
       </c>
       <c r="AB10" t="n">
-        <v>104.8300798476347</v>
+        <v>139.3809197516364</v>
       </c>
       <c r="AC10" t="n">
-        <v>94.82524415694407</v>
+        <v>126.0786003929272</v>
       </c>
       <c r="AD10" t="n">
-        <v>76616.50326422032</v>
+        <v>101868.4590209488</v>
       </c>
       <c r="AE10" t="n">
-        <v>104830.0798476347</v>
+        <v>139380.9197516364</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.677802102311129e-06</v>
+        <v>8.277589836095148e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH10" t="n">
-        <v>94825.24415694407</v>
+        <v>126078.6003929272</v>
       </c>
     </row>
     <row r="11">
@@ -8872,28 +8872,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>76.78327220841756</v>
+        <v>102.035227965146</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.0582604744118</v>
+        <v>139.6091003784135</v>
       </c>
       <c r="AC11" t="n">
-        <v>95.03164754495518</v>
+        <v>126.2850037809383</v>
       </c>
       <c r="AD11" t="n">
-        <v>76783.27220841756</v>
+        <v>102035.227965146</v>
       </c>
       <c r="AE11" t="n">
-        <v>105058.2604744118</v>
+        <v>139609.1003784135</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.678502041880325e-06</v>
+        <v>8.278610268396143e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="AH11" t="n">
-        <v>95031.64754495518</v>
+        <v>126285.0037809383</v>
       </c>
     </row>
   </sheetData>
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.85333352654921</v>
+        <v>82.1594194696803</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.8939714737098</v>
+        <v>112.4141423361457</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.07812577518897</v>
+        <v>101.6854943658526</v>
       </c>
       <c r="AD2" t="n">
-        <v>59853.33352654921</v>
+        <v>82159.4194696803</v>
       </c>
       <c r="AE2" t="n">
-        <v>81893.9714737098</v>
+        <v>112414.1423361457</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.724453700382452e-06</v>
+        <v>1.077415438657254e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.543981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>74078.12577518896</v>
+        <v>101685.4943658526</v>
       </c>
     </row>
     <row r="3">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.50528592721629</v>
+        <v>81.64077966975518</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.41775739352634</v>
+        <v>111.7045164811154</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.64736089844742</v>
+        <v>101.04359420646</v>
       </c>
       <c r="AD3" t="n">
-        <v>59505.28592721629</v>
+        <v>81640.77966975518</v>
       </c>
       <c r="AE3" t="n">
-        <v>81417.75739352635</v>
+        <v>111704.5164811154</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.82033322420546e-06</v>
+        <v>1.092777590561451e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>73647.36089844741</v>
+        <v>101043.59420646</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.4203799347145</v>
+        <v>142.1826390220135</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.7137911130825</v>
+        <v>194.5405593651644</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.4253170139162</v>
+        <v>175.973881418798</v>
       </c>
       <c r="AD2" t="n">
-        <v>109420.3799347145</v>
+        <v>142182.6390220135</v>
       </c>
       <c r="AE2" t="n">
-        <v>149713.7911130825</v>
+        <v>194540.5593651644</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.381430209575311e-06</v>
+        <v>6.505736840385458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>135425.3170139162</v>
+        <v>175973.881418798</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.17586350033875</v>
+        <v>112.7902506202366</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.6461064856662</v>
+        <v>154.3245968532136</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.1318114105797</v>
+        <v>139.5960739255171</v>
       </c>
       <c r="AD3" t="n">
-        <v>88175.86350033875</v>
+        <v>112790.2506202366</v>
       </c>
       <c r="AE3" t="n">
-        <v>120646.1064856662</v>
+        <v>154324.5968532136</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.339967775642379e-06</v>
+        <v>7.929014824553186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.064814814814816</v>
       </c>
       <c r="AH3" t="n">
-        <v>109131.8114105797</v>
+        <v>139596.0739255171</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>76.53270275060191</v>
+        <v>101.2323412165203</v>
       </c>
       <c r="AB4" t="n">
-        <v>104.7154202878843</v>
+        <v>138.5105553080809</v>
       </c>
       <c r="AC4" t="n">
-        <v>94.72152754465051</v>
+        <v>125.2913023103002</v>
       </c>
       <c r="AD4" t="n">
-        <v>76532.70275060191</v>
+        <v>101232.3412165203</v>
       </c>
       <c r="AE4" t="n">
-        <v>104715.4202878843</v>
+        <v>138510.5553080809</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.644814516170367e-06</v>
+        <v>8.381664433393262e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>94721.52754465051</v>
+        <v>125291.3023103001</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.39700147685787</v>
+        <v>99.09663994277625</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.7932595846587</v>
+        <v>135.5883946048553</v>
       </c>
       <c r="AC5" t="n">
-        <v>92.07825375766156</v>
+        <v>122.6480285233112</v>
       </c>
       <c r="AD5" t="n">
-        <v>74397.00147685787</v>
+        <v>99096.63994277625</v>
       </c>
       <c r="AE5" t="n">
-        <v>101793.2595846587</v>
+        <v>135588.3946048553</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.838268488859445e-06</v>
+        <v>8.668913248698311e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>92078.25375766156</v>
+        <v>122648.0285233112</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>72.71810829727777</v>
+        <v>97.24715456260394</v>
       </c>
       <c r="AB6" t="n">
-        <v>99.49612386881874</v>
+        <v>133.0578471141685</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.00035345049038</v>
+        <v>120.358992933489</v>
       </c>
       <c r="AD6" t="n">
-        <v>72718.10829727777</v>
+        <v>97247.15456260394</v>
       </c>
       <c r="AE6" t="n">
-        <v>99496.12386881874</v>
+        <v>133057.8471141685</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.958281601546189e-06</v>
+        <v>8.847113902637554e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.434027777777779</v>
       </c>
       <c r="AH6" t="n">
-        <v>90000.35345049038</v>
+        <v>120358.992933489</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>72.07947943089263</v>
+        <v>96.60852569621883</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.6223236795139</v>
+        <v>132.1840469248636</v>
       </c>
       <c r="AC7" t="n">
-        <v>89.20994752486624</v>
+        <v>119.5685870078648</v>
       </c>
       <c r="AD7" t="n">
-        <v>72079.47943089264</v>
+        <v>96608.52569621883</v>
       </c>
       <c r="AE7" t="n">
-        <v>98622.32367951389</v>
+        <v>132184.0469248636</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.9834149446415e-06</v>
+        <v>8.884432976153749e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>89209.94752486623</v>
+        <v>119568.5870078648</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>72.2435678358539</v>
+        <v>96.7726141011801</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.84683667425132</v>
+        <v>132.408559919601</v>
       </c>
       <c r="AC8" t="n">
-        <v>89.41303331449195</v>
+        <v>119.7716727974906</v>
       </c>
       <c r="AD8" t="n">
-        <v>72243.5678358539</v>
+        <v>96772.61410118009</v>
       </c>
       <c r="AE8" t="n">
-        <v>98846.83667425132</v>
+        <v>132408.559919601</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.978936843421846e-06</v>
+        <v>8.87778369802169e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>89413.03331449196</v>
+        <v>119771.6727974906</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.7661507108838</v>
+        <v>151.2001751974702</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.1328428784527</v>
+        <v>206.8787501860369</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.754550505543</v>
+        <v>187.13453262449</v>
       </c>
       <c r="AD2" t="n">
-        <v>117766.1507108838</v>
+        <v>151200.1751974702</v>
       </c>
       <c r="AE2" t="n">
-        <v>161132.8428784527</v>
+        <v>206878.750186037</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039377543673955e-06</v>
+        <v>5.939672329510669e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.858796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>145754.550505543</v>
+        <v>187134.53262449</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.46122873781376</v>
+        <v>118.451495756733</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.8777763774336</v>
+        <v>162.0705622054726</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.6733008775916</v>
+        <v>146.6027752160896</v>
       </c>
       <c r="AD3" t="n">
-        <v>93461.22873781376</v>
+        <v>118451.495756733</v>
       </c>
       <c r="AE3" t="n">
-        <v>127877.7763774336</v>
+        <v>162070.5622054726</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.014203021763037e-06</v>
+        <v>7.373097122242817e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.331018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>115673.3008775916</v>
+        <v>146602.7752160896</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.66395898183197</v>
+        <v>105.7394773467717</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.3679873216122</v>
+        <v>144.6774178023004</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.8346215141089</v>
+        <v>130.8696081033192</v>
       </c>
       <c r="AD4" t="n">
-        <v>80663.95898183197</v>
+        <v>105739.4773467717</v>
       </c>
       <c r="AE4" t="n">
-        <v>110367.9873216123</v>
+        <v>144677.4178023004</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.375690291150071e-06</v>
+        <v>7.904643358818577e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>99834.62151410891</v>
+        <v>130869.6081033192</v>
       </c>
     </row>
     <row r="5">
@@ -10823,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.28181397427471</v>
+        <v>103.3573323392145</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.1086314294534</v>
+        <v>141.4180619101415</v>
       </c>
       <c r="AC5" t="n">
-        <v>96.88633397376191</v>
+        <v>127.9213205629722</v>
       </c>
       <c r="AD5" t="n">
-        <v>78281.81397427472</v>
+        <v>103357.3323392145</v>
       </c>
       <c r="AE5" t="n">
-        <v>107108.6314294534</v>
+        <v>141418.0619101416</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.583335686674166e-06</v>
+        <v>8.20997396899546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.68287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>96886.33397376191</v>
+        <v>127921.3205629722</v>
       </c>
     </row>
     <row r="6">
@@ -10929,28 +10929,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>76.74509688000185</v>
+        <v>101.8206152449416</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.0060273058969</v>
+        <v>139.315457786585</v>
       </c>
       <c r="AC6" t="n">
-        <v>94.98439943673354</v>
+        <v>126.0193860259438</v>
       </c>
       <c r="AD6" t="n">
-        <v>76745.09688000186</v>
+        <v>101820.6152449416</v>
       </c>
       <c r="AE6" t="n">
-        <v>105006.0273058969</v>
+        <v>139315.457786585</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.680686605072282e-06</v>
+        <v>8.353122894791541e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>94984.39943673354</v>
+        <v>126019.3860259438</v>
       </c>
     </row>
     <row r="7">
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.15994517860584</v>
+        <v>100.0648713429534</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.8371528160904</v>
+        <v>136.9131715219317</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.02251928419905</v>
+        <v>123.8463705907583</v>
       </c>
       <c r="AD7" t="n">
-        <v>75159.94517860583</v>
+        <v>100064.8713429534</v>
       </c>
       <c r="AE7" t="n">
-        <v>102837.1528160904</v>
+        <v>136913.1715219317</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.789993861617323e-06</v>
+        <v>8.513852928093846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.480324074074075</v>
       </c>
       <c r="AH7" t="n">
-        <v>93022.51928419905</v>
+        <v>123846.3705907583</v>
       </c>
     </row>
     <row r="8">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>74.34484506644014</v>
+        <v>99.24977123078772</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7218968829468</v>
+        <v>135.7979155887881</v>
       </c>
       <c r="AC8" t="n">
-        <v>92.0137018120428</v>
+        <v>122.8375531186021</v>
       </c>
       <c r="AD8" t="n">
-        <v>74344.84506644015</v>
+        <v>99249.77123078771</v>
       </c>
       <c r="AE8" t="n">
-        <v>101721.8968829468</v>
+        <v>135797.9155887881</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.827069478990351e-06</v>
+        <v>8.568370490819566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>92013.7018120428</v>
+        <v>122837.5531186021</v>
       </c>
     </row>
     <row r="9">
@@ -11247,28 +11247,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>74.44745231739499</v>
+        <v>99.35237848174255</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.8622886504156</v>
+        <v>135.9383073562569</v>
       </c>
       <c r="AC9" t="n">
-        <v>92.1406947862655</v>
+        <v>122.9645460928248</v>
       </c>
       <c r="AD9" t="n">
-        <v>74447.45231739499</v>
+        <v>99352.37848174255</v>
       </c>
       <c r="AE9" t="n">
-        <v>101862.2886504156</v>
+        <v>135938.3073562569</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.819829861396801e-06</v>
+        <v>8.557725049577266e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>92140.69478626549</v>
+        <v>122964.5460928248</v>
       </c>
     </row>
   </sheetData>
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4524946800742</v>
+        <v>188.2771298671479</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.0145201323713</v>
+        <v>257.6090752848612</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.0208536496275</v>
+        <v>233.0232266963571</v>
       </c>
       <c r="AD2" t="n">
-        <v>145452.4946800742</v>
+        <v>188277.1298671479</v>
       </c>
       <c r="AE2" t="n">
-        <v>199014.5201323713</v>
+        <v>257609.0752848612</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.447549148984107e-06</v>
+        <v>4.987819324128051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>180020.8536496275</v>
+        <v>233023.2266963571</v>
       </c>
     </row>
     <row r="3">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.967361549345</v>
+        <v>137.2100015280897</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.8844866711454</v>
+        <v>187.7367773686978</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.4386689959082</v>
+        <v>169.8194428269041</v>
       </c>
       <c r="AD3" t="n">
-        <v>102967.361549345</v>
+        <v>137210.0015280897</v>
       </c>
       <c r="AE3" t="n">
-        <v>140884.4866711454</v>
+        <v>187736.7773686978</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.536806124745685e-06</v>
+        <v>6.563726369353449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.753472222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>127438.6689959082</v>
+        <v>169819.4428269041</v>
       </c>
     </row>
     <row r="4">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.01260011934588</v>
+        <v>122.6733343983125</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.7369193770912</v>
+        <v>167.8470680892545</v>
       </c>
       <c r="AC4" t="n">
-        <v>120.0686940892134</v>
+        <v>151.8279794857022</v>
       </c>
       <c r="AD4" t="n">
-        <v>97012.60011934588</v>
+        <v>122673.3343983125</v>
       </c>
       <c r="AE4" t="n">
-        <v>132736.9193770912</v>
+        <v>167847.0680892545</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.943636405593649e-06</v>
+        <v>7.152317234563264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.197916666666668</v>
       </c>
       <c r="AH4" t="n">
-        <v>120068.6940892134</v>
+        <v>151827.9794857022</v>
       </c>
     </row>
     <row r="5">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.80663002131274</v>
+        <v>119.9639291454857</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.4044167164603</v>
+        <v>164.139940291815</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.1995039632055</v>
+        <v>148.4746547622626</v>
       </c>
       <c r="AD5" t="n">
-        <v>85806.63002131274</v>
+        <v>119963.9291454857</v>
       </c>
       <c r="AE5" t="n">
-        <v>117404.4167164603</v>
+        <v>164139.940291815</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.128443758936558e-06</v>
+        <v>7.419691432409389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>106199.5039632055</v>
+        <v>148474.6547622627</v>
       </c>
     </row>
     <row r="6">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.88025053182282</v>
+        <v>109.62623615681</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.7686593130764</v>
+        <v>149.9954526778889</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.815299547091</v>
+        <v>135.6800971942921</v>
       </c>
       <c r="AD6" t="n">
-        <v>83880.25053182282</v>
+        <v>109626.23615681</v>
       </c>
       <c r="AE6" t="n">
-        <v>114768.6593130764</v>
+        <v>149995.4526778889</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.271853418119009e-06</v>
+        <v>7.627172584504822e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.810185185185184</v>
       </c>
       <c r="AH6" t="n">
-        <v>103815.299547091</v>
+        <v>135680.0971942921</v>
       </c>
     </row>
     <row r="7">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.79388702624684</v>
+        <v>108.539872651234</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.2822488377727</v>
+        <v>148.5090422025852</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.4707500013597</v>
+        <v>134.3355476485607</v>
       </c>
       <c r="AD7" t="n">
-        <v>82793.88702624684</v>
+        <v>108539.872651234</v>
       </c>
       <c r="AE7" t="n">
-        <v>113282.2488377727</v>
+        <v>148509.0422025853</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.331567739107493e-06</v>
+        <v>7.713565622365157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>102470.7500013597</v>
+        <v>134335.5476485607</v>
       </c>
     </row>
     <row r="8">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.6072404316221</v>
+        <v>107.3532260566093</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.658626615855</v>
+        <v>146.8854199806675</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.0020840055332</v>
+        <v>132.8668816527342</v>
       </c>
       <c r="AD8" t="n">
-        <v>81607.24043162211</v>
+        <v>107353.2260566093</v>
       </c>
       <c r="AE8" t="n">
-        <v>111658.626615855</v>
+        <v>146885.4199806675</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.405204814014392e-06</v>
+        <v>7.820101717811721e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.665509259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>101002.0840055332</v>
+        <v>132866.8816527342</v>
       </c>
     </row>
     <row r="9">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.3130785742873</v>
+        <v>106.0590641992745</v>
       </c>
       <c r="AB9" t="n">
-        <v>109.8878972682588</v>
+        <v>145.1146906330713</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.40035058163672</v>
+        <v>131.2651482288377</v>
       </c>
       <c r="AD9" t="n">
-        <v>80313.0785742873</v>
+        <v>106059.0641992745</v>
       </c>
       <c r="AE9" t="n">
-        <v>109887.8972682588</v>
+        <v>145114.6906330713</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.484400402843092e-06</v>
+        <v>7.934679718378265e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>99400.35058163671</v>
+        <v>131265.1482288378</v>
       </c>
     </row>
     <row r="10">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>79.55942120120341</v>
+        <v>105.3054068261906</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.8567100013892</v>
+        <v>144.0835033662017</v>
       </c>
       <c r="AC10" t="n">
-        <v>98.46757838023643</v>
+        <v>130.3323760274375</v>
       </c>
       <c r="AD10" t="n">
-        <v>79559.42120120341</v>
+        <v>105305.4068261906</v>
       </c>
       <c r="AE10" t="n">
-        <v>108856.7100013892</v>
+        <v>144083.5033662017</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.508169667137267e-06</v>
+        <v>7.969068436462741e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.561342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>98467.57838023643</v>
+        <v>130332.3760274375</v>
       </c>
     </row>
     <row r="11">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>79.18984039431297</v>
+        <v>104.9358260193002</v>
       </c>
       <c r="AB11" t="n">
-        <v>108.3510332366475</v>
+        <v>143.57782660146</v>
       </c>
       <c r="AC11" t="n">
-        <v>98.01016269619971</v>
+        <v>129.8749603434008</v>
       </c>
       <c r="AD11" t="n">
-        <v>79189.84039431297</v>
+        <v>104935.8260193002</v>
       </c>
       <c r="AE11" t="n">
-        <v>108351.0332366475</v>
+        <v>143577.82660146</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.517433857006934e-06</v>
+        <v>7.982471611662704e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.549768518518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>98010.16269619971</v>
+        <v>129874.9603434008</v>
       </c>
     </row>
     <row r="12">
@@ -12604,28 +12604,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>78.9190599325019</v>
+        <v>104.6650455574891</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.9805394628069</v>
+        <v>143.2073328276194</v>
       </c>
       <c r="AC12" t="n">
-        <v>97.67502832814306</v>
+        <v>129.5398259753441</v>
       </c>
       <c r="AD12" t="n">
-        <v>78919.0599325019</v>
+        <v>104665.0455574891</v>
       </c>
       <c r="AE12" t="n">
-        <v>107980.5394628069</v>
+        <v>143207.3328276194</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.517275042323454e-06</v>
+        <v>7.982241842944992e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>97675.02832814306</v>
+        <v>129539.8259753441</v>
       </c>
     </row>
   </sheetData>
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.24552836502573</v>
+        <v>125.5434244432494</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.5826456113564</v>
+        <v>171.7740519081717</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.40633697761</v>
+        <v>155.3801774804996</v>
       </c>
       <c r="AD2" t="n">
-        <v>93245.52836502573</v>
+        <v>125543.4244432494</v>
       </c>
       <c r="AE2" t="n">
-        <v>127582.6456113564</v>
+        <v>171774.0519081716</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.772054195190407e-06</v>
+        <v>7.166120362257711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.944444444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>115406.33697761</v>
+        <v>155380.1774804996</v>
       </c>
     </row>
     <row r="3">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.26261389384769</v>
+        <v>99.55004159344415</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.9776286817083</v>
+        <v>136.2087587459679</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.14958833036151</v>
+        <v>123.2091859814828</v>
       </c>
       <c r="AD3" t="n">
-        <v>75262.61389384768</v>
+        <v>99550.04159344416</v>
       </c>
       <c r="AE3" t="n">
-        <v>102977.6286817083</v>
+        <v>136208.7587459679</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.653742236270485e-06</v>
+        <v>8.490137727926157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.862268518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>93149.58833036151</v>
+        <v>123209.1859814828</v>
       </c>
     </row>
     <row r="4">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>72.09192710819785</v>
+        <v>96.37935480779431</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.63935514075565</v>
+        <v>131.8704852050153</v>
       </c>
       <c r="AC4" t="n">
-        <v>89.22535352735088</v>
+        <v>119.2849511784721</v>
       </c>
       <c r="AD4" t="n">
-        <v>72091.92710819785</v>
+        <v>96379.35480779431</v>
       </c>
       <c r="AE4" t="n">
-        <v>98639.35514075565</v>
+        <v>131870.4852050153</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.968160381481892e-06</v>
+        <v>8.962294618963491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>89225.35352735088</v>
+        <v>119284.9511784721</v>
       </c>
     </row>
     <row r="5">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.37311787057294</v>
+        <v>94.48995336957721</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.28760451332657</v>
+        <v>129.2853228027394</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.09805067910015</v>
+        <v>116.9465130475704</v>
       </c>
       <c r="AD5" t="n">
-        <v>70373.11787057294</v>
+        <v>94489.95336957721</v>
       </c>
       <c r="AE5" t="n">
-        <v>96287.60451332657</v>
+        <v>129285.3228027394</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.096791192801533e-06</v>
+        <v>9.155457529213009e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.434027777777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>87098.05067910015</v>
+        <v>116946.5130475704</v>
       </c>
     </row>
     <row r="6">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.65119264381285</v>
+        <v>93.76802814281712</v>
       </c>
       <c r="AB6" t="n">
-        <v>95.2998345689807</v>
+        <v>128.2975528583935</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.20455211189851</v>
+        <v>116.0530144803687</v>
       </c>
       <c r="AD6" t="n">
-        <v>69651.19264381284</v>
+        <v>93768.02814281711</v>
       </c>
       <c r="AE6" t="n">
-        <v>95299.8345689807</v>
+        <v>128297.5528583935</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.174049859083898e-06</v>
+        <v>9.271475679670088e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>86204.55211189851</v>
+        <v>116053.0144803687</v>
       </c>
     </row>
   </sheetData>
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.31974342174665</v>
+        <v>105.8090680519671</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.6335046403564</v>
+        <v>144.7726348752738</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.8839210396264</v>
+        <v>130.9557377924861</v>
       </c>
       <c r="AD2" t="n">
-        <v>82319.74342174665</v>
+        <v>105809.0680519671</v>
       </c>
       <c r="AE2" t="n">
-        <v>112633.5046403564</v>
+        <v>144772.6348752738</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.463967542487108e-06</v>
+        <v>8.380342454284881e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>101883.9210396264</v>
+        <v>130955.7377924861</v>
       </c>
     </row>
     <row r="3">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.99535269791261</v>
+        <v>91.56992867415357</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.03424130449834</v>
+        <v>125.290016192065</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.15518388879751</v>
+        <v>113.3325128923695</v>
       </c>
       <c r="AD3" t="n">
-        <v>67995.3526979126</v>
+        <v>91569.92867415358</v>
       </c>
       <c r="AE3" t="n">
-        <v>93034.24130449834</v>
+        <v>125290.016192065</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.20694160895944e-06</v>
+        <v>9.519876513240256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.561342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>84155.1838887975</v>
+        <v>113332.5128923695</v>
       </c>
     </row>
     <row r="4">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.85309079311168</v>
+        <v>89.25707456876046</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.10310405642612</v>
+        <v>122.1254671691459</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.50379026580342</v>
+        <v>110.4699839867244</v>
       </c>
       <c r="AD4" t="n">
-        <v>65853.09079311168</v>
+        <v>89257.07456876046</v>
       </c>
       <c r="AE4" t="n">
-        <v>90103.10405642612</v>
+        <v>122125.467169146</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.422066426985717e-06</v>
+        <v>9.849823503491832e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>81503.79026580341</v>
+        <v>110469.9839867244</v>
       </c>
     </row>
     <row r="5">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.76883450282148</v>
+        <v>89.17281827847025</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.98782088292594</v>
+        <v>122.0101839956458</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.39950955658109</v>
+        <v>110.365703277502</v>
       </c>
       <c r="AD5" t="n">
-        <v>65768.83450282148</v>
+        <v>89172.81827847025</v>
       </c>
       <c r="AE5" t="n">
-        <v>89987.82088292594</v>
+        <v>122010.1839956458</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.460306861914957e-06</v>
+        <v>9.908474646240376e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.341435185185186</v>
       </c>
       <c r="AH5" t="n">
-        <v>81399.50955658109</v>
+        <v>110365.703277502</v>
       </c>
     </row>
   </sheetData>
@@ -25218,28 +25218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.38590530075381</v>
+        <v>90.39068557102772</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.20036848878451</v>
+        <v>123.676523753835</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.40089472426729</v>
+        <v>111.8730099078928</v>
       </c>
       <c r="AD2" t="n">
-        <v>67385.9053007538</v>
+        <v>90390.68557102772</v>
       </c>
       <c r="AE2" t="n">
-        <v>92200.3684887845</v>
+        <v>123676.523753835</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.012441057556755e-06</v>
+        <v>9.394320554834718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>83400.89472426729</v>
+        <v>111873.0099078928</v>
       </c>
     </row>
     <row r="3">
@@ -25324,28 +25324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.04352518001002</v>
+        <v>85.87771324969174</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.25893243529541</v>
+        <v>117.5016759254991</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.02650098886342</v>
+        <v>106.2874808898379</v>
       </c>
       <c r="AD3" t="n">
-        <v>63043.52518001002</v>
+        <v>85877.71324969173</v>
       </c>
       <c r="AE3" t="n">
-        <v>86258.93243529541</v>
+        <v>117501.6759254991</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.616054938696931e-06</v>
+        <v>1.033745533761179e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.399305555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>78026.50098886342</v>
+        <v>106287.4808898379</v>
       </c>
     </row>
     <row r="4">
@@ -25430,28 +25430,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.96295069942759</v>
+        <v>85.7971387691093</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.14868687626739</v>
+        <v>117.391430366471</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.92677711125839</v>
+        <v>106.1877570122329</v>
       </c>
       <c r="AD4" t="n">
-        <v>62962.95069942759</v>
+        <v>85797.1387691093</v>
       </c>
       <c r="AE4" t="n">
-        <v>86148.68687626738</v>
+        <v>117391.430366471</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.648515924432513e-06</v>
+        <v>1.038817498751882e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>77926.77711125839</v>
+        <v>106187.7570122328</v>
       </c>
     </row>
   </sheetData>
@@ -25727,28 +25727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.3964381507904</v>
+        <v>79.27170662828419</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.53233883002413</v>
+        <v>108.4630462296502</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.03732263293455</v>
+        <v>98.11148532636152</v>
       </c>
       <c r="AD2" t="n">
-        <v>57396.4381507904</v>
+        <v>79271.7066282842</v>
       </c>
       <c r="AE2" t="n">
-        <v>78532.33883002413</v>
+        <v>108463.0462296502</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.812716536898092e-06</v>
+        <v>1.11025215417287e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>71037.32263293455</v>
+        <v>98111.48532636152</v>
       </c>
     </row>
   </sheetData>
@@ -26024,28 +26024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.5773780498964</v>
+        <v>146.7661606067808</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.4015793280851</v>
+        <v>200.8119358081408</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.5702707045417</v>
+        <v>181.6467264959909</v>
       </c>
       <c r="AD2" t="n">
-        <v>113577.3780498964</v>
+        <v>146766.1606067808</v>
       </c>
       <c r="AE2" t="n">
-        <v>155401.5793280851</v>
+        <v>200811.9358081408</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.20273023583588e-06</v>
+        <v>6.209032978044109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.627314814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>140570.2707045416</v>
+        <v>181646.7264959909</v>
       </c>
     </row>
     <row r="3">
@@ -26130,28 +26130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.67156972923657</v>
+        <v>115.4779053008792</v>
       </c>
       <c r="AB3" t="n">
-        <v>124.0608418508307</v>
+        <v>158.0019645582232</v>
       </c>
       <c r="AC3" t="n">
-        <v>112.2206492251051</v>
+        <v>142.9224788179798</v>
       </c>
       <c r="AD3" t="n">
-        <v>90671.56972923657</v>
+        <v>115477.9053008792</v>
       </c>
       <c r="AE3" t="n">
-        <v>124060.8418508307</v>
+        <v>158001.9645582232</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.183520545120193e-06</v>
+        <v>7.65803375448371e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.186342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>112220.6492251051</v>
+        <v>142922.4788179798</v>
       </c>
     </row>
     <row r="4">
@@ -26236,28 +26236,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.59107359791133</v>
+        <v>103.4826605155746</v>
       </c>
       <c r="AB4" t="n">
-        <v>107.5317740900845</v>
+        <v>141.5895414501263</v>
       </c>
       <c r="AC4" t="n">
-        <v>97.26909249274698</v>
+        <v>128.0764343363339</v>
       </c>
       <c r="AD4" t="n">
-        <v>78591.07359791134</v>
+        <v>103482.6605155746</v>
       </c>
       <c r="AE4" t="n">
-        <v>107531.7740900845</v>
+        <v>141589.5414501263</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.508234924032688e-06</v>
+        <v>8.137760544921354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.82175925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>97269.09249274698</v>
+        <v>128076.4343363339</v>
       </c>
     </row>
     <row r="5">
@@ -26342,28 +26342,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.30840755360198</v>
+        <v>101.1999944712652</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.4085297041434</v>
+        <v>138.4662970641852</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.44392616749811</v>
+        <v>125.2512680110851</v>
       </c>
       <c r="AD5" t="n">
-        <v>76308.40755360198</v>
+        <v>101199.9944712652</v>
       </c>
       <c r="AE5" t="n">
-        <v>104408.5297041434</v>
+        <v>138466.2970641852</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.714574238507108e-06</v>
+        <v>8.442602287394952e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.607638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>94443.92616749811</v>
+        <v>125251.2680110851</v>
       </c>
     </row>
     <row r="6">
@@ -26448,28 +26448,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.89303099667785</v>
+        <v>99.78461791434108</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.471949056954</v>
+        <v>136.5297164169958</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.69217005926785</v>
+        <v>123.4995119028548</v>
       </c>
       <c r="AD6" t="n">
-        <v>74893.03099667784</v>
+        <v>99784.61791434108</v>
       </c>
       <c r="AE6" t="n">
-        <v>102471.949056954</v>
+        <v>136529.7164169958</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.814558792232295e-06</v>
+        <v>8.590317547841889e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.515046296296297</v>
       </c>
       <c r="AH6" t="n">
-        <v>92692.17005926785</v>
+        <v>123499.5119028548</v>
       </c>
     </row>
     <row r="7">
@@ -26554,28 +26554,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>73.6129673074784</v>
+        <v>98.33396202454946</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.7205094449679</v>
+        <v>134.5448650301628</v>
       </c>
       <c r="AC7" t="n">
-        <v>91.10788538568818</v>
+        <v>121.7040919466241</v>
       </c>
       <c r="AD7" t="n">
-        <v>73612.96730747839</v>
+        <v>98333.96202454946</v>
       </c>
       <c r="AE7" t="n">
-        <v>100720.5094449679</v>
+        <v>134544.8650301629</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.887511510933722e-06</v>
+        <v>8.698096494107052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.445601851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>91107.88538568818</v>
+        <v>121704.0919466241</v>
       </c>
     </row>
     <row r="8">
@@ -26660,28 +26660,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>73.07591284398197</v>
+        <v>97.79690756105302</v>
       </c>
       <c r="AB8" t="n">
-        <v>99.98568783484171</v>
+        <v>133.8100434200366</v>
       </c>
       <c r="AC8" t="n">
-        <v>90.44319411870357</v>
+        <v>121.0394006796395</v>
       </c>
       <c r="AD8" t="n">
-        <v>73075.91284398196</v>
+        <v>97796.90756105301</v>
       </c>
       <c r="AE8" t="n">
-        <v>99985.68783484171</v>
+        <v>133810.0434200366</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.92191062886355e-06</v>
+        <v>8.748917090637548e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.41087962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>90443.19411870357</v>
+        <v>121039.4006796395</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.7036006310754</v>
+        <v>183.2631739800364</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.5168737881152</v>
+        <v>250.7487596399966</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1433335529612</v>
+        <v>226.8176499481227</v>
       </c>
       <c r="AD2" t="n">
-        <v>140703.6006310754</v>
+        <v>183263.1739800364</v>
       </c>
       <c r="AE2" t="n">
-        <v>192516.8737881152</v>
+        <v>250748.7596399966</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.576310024372758e-06</v>
+        <v>5.193406607676849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.640046296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>174143.3335529612</v>
+        <v>226817.6499481227</v>
       </c>
     </row>
     <row r="3">
@@ -27063,28 +27063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.3828275782406</v>
+        <v>134.4134180864951</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.3482132702905</v>
+        <v>183.9103685273561</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.2398925652388</v>
+        <v>166.3582210749802</v>
       </c>
       <c r="AD3" t="n">
-        <v>100382.8275782406</v>
+        <v>134413.4180864951</v>
       </c>
       <c r="AE3" t="n">
-        <v>137348.2132702905</v>
+        <v>183910.3685273561</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.654877172426846e-06</v>
+        <v>6.759668401356132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.637731481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>124239.8925652388</v>
+        <v>166358.2210749802</v>
       </c>
     </row>
     <row r="4">
@@ -27169,28 +27169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.89914379657932</v>
+        <v>120.4008409726784</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.845195197171</v>
+        <v>164.7377423289691</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.4529520064634</v>
+        <v>149.0154034120114</v>
       </c>
       <c r="AD4" t="n">
-        <v>94899.14379657933</v>
+        <v>120400.8409726784</v>
       </c>
       <c r="AE4" t="n">
-        <v>129845.195197171</v>
+        <v>164737.7423289691</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.054362302390066e-06</v>
+        <v>7.33978832929317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.111111111111112</v>
       </c>
       <c r="AH4" t="n">
-        <v>117452.9520064634</v>
+        <v>149015.4034120114</v>
       </c>
     </row>
     <row r="5">
@@ -27275,28 +27275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.7281352522518</v>
+        <v>109.3150837743714</v>
       </c>
       <c r="AB5" t="n">
-        <v>114.5605284767149</v>
+        <v>149.5697202611623</v>
       </c>
       <c r="AC5" t="n">
-        <v>103.6270324256384</v>
+        <v>135.2949960818985</v>
       </c>
       <c r="AD5" t="n">
-        <v>83728.1352522518</v>
+        <v>109315.0837743714</v>
       </c>
       <c r="AE5" t="n">
-        <v>114560.5284767149</v>
+        <v>149569.7202611623</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.249941339827964e-06</v>
+        <v>7.623802147566995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>103627.0324256384</v>
+        <v>135294.9960818985</v>
       </c>
     </row>
     <row r="6">
@@ -27381,28 +27381,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.06426812672444</v>
+        <v>107.651216648844</v>
       </c>
       <c r="AB6" t="n">
-        <v>112.2839520709326</v>
+        <v>147.29314385538</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.5677292768281</v>
+        <v>133.2356929330883</v>
       </c>
       <c r="AD6" t="n">
-        <v>82064.26812672445</v>
+        <v>107651.216648844</v>
       </c>
       <c r="AE6" t="n">
-        <v>112283.9520709326</v>
+        <v>147293.14385538</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.378957315124744e-06</v>
+        <v>7.811155149414111e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.74074074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>101567.7292768281</v>
+        <v>133235.6929330883</v>
       </c>
     </row>
     <row r="7">
@@ -27487,28 +27487,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.90175853186473</v>
+        <v>106.4887070539843</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.6933551569426</v>
+        <v>145.70254694139</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.1289366998921</v>
+        <v>131.7969003561522</v>
       </c>
       <c r="AD7" t="n">
-        <v>80901.75853186473</v>
+        <v>106488.7070539843</v>
       </c>
       <c r="AE7" t="n">
-        <v>110693.3551569426</v>
+        <v>145702.54694139</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.453740675236779e-06</v>
+        <v>7.919753227853419e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.665509259259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>100128.9366998921</v>
+        <v>131796.9003561522</v>
       </c>
     </row>
     <row r="8">
@@ -27593,28 +27593,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>79.54564812047116</v>
+        <v>105.1325966425907</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.8378650647059</v>
+        <v>143.8470568491533</v>
       </c>
       <c r="AC8" t="n">
-        <v>98.45053197786116</v>
+        <v>130.1184956341213</v>
       </c>
       <c r="AD8" t="n">
-        <v>79545.64812047116</v>
+        <v>105132.5966425907</v>
       </c>
       <c r="AE8" t="n">
-        <v>108837.8650647059</v>
+        <v>143847.0568491533</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.528577413907066e-06</v>
+        <v>8.028428820981123e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.584490740740741</v>
       </c>
       <c r="AH8" t="n">
-        <v>98450.53197786116</v>
+        <v>130118.4956341213</v>
       </c>
     </row>
     <row r="9">
@@ -27699,28 +27699,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>78.82237062745791</v>
+        <v>104.4093191495775</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.8482448900147</v>
+        <v>142.8574366744621</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.5553597637015</v>
+        <v>129.2233234199616</v>
       </c>
       <c r="AD9" t="n">
-        <v>78822.37062745792</v>
+        <v>104409.3191495775</v>
       </c>
       <c r="AE9" t="n">
-        <v>107848.2448900147</v>
+        <v>142857.4366744621</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.559483599135381e-06</v>
+        <v>8.073309825560966e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.555555555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>97555.3597637015</v>
+        <v>129223.3234199617</v>
       </c>
     </row>
     <row r="10">
@@ -27805,28 +27805,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>78.08762624484659</v>
+        <v>103.6745747669662</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.8429352110919</v>
+        <v>141.8521269955393</v>
       </c>
       <c r="AC10" t="n">
-        <v>96.64599542957382</v>
+        <v>128.313959085834</v>
       </c>
       <c r="AD10" t="n">
-        <v>78087.62624484659</v>
+        <v>103674.5747669662</v>
       </c>
       <c r="AE10" t="n">
-        <v>106842.9352110919</v>
+        <v>141852.1269955393</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.591510734087001e-06</v>
+        <v>8.119818638597071e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.526620370370371</v>
       </c>
       <c r="AH10" t="n">
-        <v>96645.99542957381</v>
+        <v>128313.959085834</v>
       </c>
     </row>
     <row r="11">
@@ -27911,28 +27911,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>77.96294413318572</v>
+        <v>103.5498926553053</v>
       </c>
       <c r="AB11" t="n">
-        <v>106.6723396453311</v>
+        <v>141.6815314297784</v>
       </c>
       <c r="AC11" t="n">
-        <v>96.49168126517671</v>
+        <v>128.1596449214369</v>
       </c>
       <c r="AD11" t="n">
-        <v>77962.94413318571</v>
+        <v>103549.8926553053</v>
       </c>
       <c r="AE11" t="n">
-        <v>106672.3396453311</v>
+        <v>141681.5314297784</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.591510734087001e-06</v>
+        <v>8.119818638597071e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.526620370370371</v>
       </c>
       <c r="AH11" t="n">
-        <v>96491.68126517671</v>
+        <v>128159.6449214369</v>
       </c>
     </row>
   </sheetData>
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.96657247132234</v>
+        <v>83.25854664322313</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.20768940926948</v>
+        <v>113.9180166250549</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.02997308672089</v>
+        <v>103.0458410033296</v>
       </c>
       <c r="AD2" t="n">
-        <v>54966.57247132235</v>
+        <v>83258.54664322313</v>
       </c>
       <c r="AE2" t="n">
-        <v>75207.68940926947</v>
+        <v>113918.0166250549</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.640446822761056e-06</v>
+        <v>1.106922922208386e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.97800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>68029.97308672089</v>
+        <v>103045.8410033296</v>
       </c>
     </row>
   </sheetData>
@@ -28505,28 +28505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.78122358141744</v>
+        <v>109.6941873634364</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.3696545045425</v>
+        <v>150.0884265165907</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.1680594080041</v>
+        <v>135.7641977403178</v>
       </c>
       <c r="AD2" t="n">
-        <v>85781.22358141743</v>
+        <v>109694.1873634364</v>
       </c>
       <c r="AE2" t="n">
-        <v>117369.6545045425</v>
+        <v>150088.4265165907</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.226362603938912e-06</v>
+        <v>7.954035854454041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>106168.0594080041</v>
+        <v>135764.1977403178</v>
       </c>
     </row>
     <row r="3">
@@ -28611,28 +28611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.59099051993898</v>
+        <v>94.41861344738628</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.58570748405194</v>
+        <v>129.1877123739025</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.36770312068975</v>
+        <v>116.8582184210646</v>
       </c>
       <c r="AD3" t="n">
-        <v>70590.99051993899</v>
+        <v>94418.61344738628</v>
       </c>
       <c r="AE3" t="n">
-        <v>96585.70748405193</v>
+        <v>129187.7123739025</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.99995268633562e-06</v>
+        <v>9.131367723351936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.671296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>87367.70312068975</v>
+        <v>116858.2184210646</v>
       </c>
     </row>
     <row r="4">
@@ -28717,28 +28717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.79142655475827</v>
+        <v>91.44845728161337</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.75522055884824</v>
+        <v>125.123813673852</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.90279249150409</v>
+        <v>113.1821725092279</v>
       </c>
       <c r="AD4" t="n">
-        <v>67791.42655475828</v>
+        <v>91448.45728161337</v>
       </c>
       <c r="AE4" t="n">
-        <v>92755.22055884823</v>
+        <v>125123.813673852</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.285603131685997e-06</v>
+        <v>9.566101027628469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.41087962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>83902.79249150409</v>
+        <v>113182.1725092279</v>
       </c>
     </row>
     <row r="5">
@@ -28823,28 +28823,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.20736560708353</v>
+        <v>90.86439633393861</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.95608260328957</v>
+        <v>124.3246757182933</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.17992314082652</v>
+        <v>112.4593031585504</v>
       </c>
       <c r="AD5" t="n">
-        <v>67207.36560708353</v>
+        <v>90864.39633393861</v>
       </c>
       <c r="AE5" t="n">
-        <v>91956.08260328957</v>
+        <v>124324.6757182933</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.346507404454672e-06</v>
+        <v>9.658791643646268e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.358796296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>83179.92314082652</v>
+        <v>112459.3031585503</v>
       </c>
     </row>
   </sheetData>
@@ -29120,28 +29120,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.3615822710002</v>
+        <v>129.8603352386444</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.1603650880759</v>
+        <v>177.6806397070913</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.4019021744521</v>
+        <v>160.7230488298402</v>
       </c>
       <c r="AD2" t="n">
-        <v>105361.5822710002</v>
+        <v>129860.3352386444</v>
       </c>
       <c r="AE2" t="n">
-        <v>144160.3650880759</v>
+        <v>177680.6397070913</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.57085868678182e-06</v>
+        <v>6.823883814356974e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.164351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>130401.9021744521</v>
+        <v>160723.0488298402</v>
       </c>
     </row>
     <row r="3">
@@ -29226,28 +29226,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.76931651063622</v>
+        <v>110.2635194136172</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.4074097899112</v>
+        <v>150.8674117448052</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.25203594332663</v>
+        <v>136.4688377116644</v>
       </c>
       <c r="AD3" t="n">
-        <v>77769.31651063621</v>
+        <v>110263.5194136173</v>
       </c>
       <c r="AE3" t="n">
-        <v>106407.4097899112</v>
+        <v>150867.4117448052</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.476121559800735e-06</v>
+        <v>8.175360438387406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.983796296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>96252.03594332663</v>
+        <v>136468.8377116644</v>
       </c>
     </row>
     <row r="4">
@@ -29332,28 +29332,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>74.19557509882091</v>
+        <v>98.69423855791412</v>
       </c>
       <c r="AB4" t="n">
-        <v>101.5176591279241</v>
+        <v>135.037811277391</v>
       </c>
       <c r="AC4" t="n">
-        <v>91.82895622170987</v>
+        <v>122.1499920958714</v>
       </c>
       <c r="AD4" t="n">
-        <v>74195.5750988209</v>
+        <v>98694.23855791411</v>
       </c>
       <c r="AE4" t="n">
-        <v>101517.6591279241</v>
+        <v>135037.811277391</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.819231697117269e-06</v>
+        <v>8.687593231614394e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.630787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>91828.95622170987</v>
+        <v>122149.9920958714</v>
       </c>
     </row>
     <row r="5">
@@ -29438,28 +29438,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.37525051074677</v>
+        <v>96.70332176924779</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.02701071946926</v>
+        <v>132.3137510940894</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.57601180171019</v>
+        <v>119.6859123932207</v>
       </c>
       <c r="AD5" t="n">
-        <v>72375.25051074677</v>
+        <v>96703.32176924779</v>
       </c>
       <c r="AE5" t="n">
-        <v>99027.01071946925</v>
+        <v>132313.7510940894</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.962939489701677e-06</v>
+        <v>8.902136131977858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.491898148148149</v>
       </c>
       <c r="AH5" t="n">
-        <v>89576.01180171019</v>
+        <v>119685.9123932207</v>
       </c>
     </row>
     <row r="6">
@@ -29544,28 +29544,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.09177838123036</v>
+        <v>95.41984963973137</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.27090752907165</v>
+        <v>130.5576479036918</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.98750863509727</v>
+        <v>118.0974092266078</v>
       </c>
       <c r="AD6" t="n">
-        <v>71091.77838123035</v>
+        <v>95419.84963973137</v>
       </c>
       <c r="AE6" t="n">
-        <v>97270.90752907164</v>
+        <v>130557.6479036918</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.052594134622394e-06</v>
+        <v>9.035982510148686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.41087962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>87987.50863509727</v>
+        <v>118097.4092266078</v>
       </c>
     </row>
     <row r="7">
@@ -29650,28 +29650,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.75577014149617</v>
+        <v>95.08384139999721</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.81116623183026</v>
+        <v>130.0979066064504</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.57164440201349</v>
+        <v>117.681544993524</v>
       </c>
       <c r="AD7" t="n">
-        <v>70755.77014149618</v>
+        <v>95083.84139999721</v>
       </c>
       <c r="AE7" t="n">
-        <v>96811.16623183026</v>
+        <v>130097.9066064504</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.090063436981937e-06</v>
+        <v>9.091920832338767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.376157407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>87571.64440201349</v>
+        <v>117681.544993524</v>
       </c>
     </row>
   </sheetData>
